--- a/data/trans_camb/LAWTONB_2R3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R3-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.032693498352766</v>
+        <v>4.127545024007906</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2953977222433867</v>
+        <v>0.8921693857258322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.057368424509153</v>
+        <v>6.615783399566542</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.774717824837185</v>
+        <v>3.604704146474331</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.328828706622198</v>
+        <v>3.1479619197379</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>14.26024958842656</v>
+        <v>14.06772863085916</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.989018188058996</v>
+        <v>4.971072500424305</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.98426235805746</v>
+        <v>3.476564818286552</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.87768883268219</v>
+        <v>13.21818273879286</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.73634016887337</v>
+        <v>14.78764921655002</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.43397811486919</v>
+        <v>11.70900341334946</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.94845050652255</v>
+        <v>17.60288172797343</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.44159302680512</v>
+        <v>13.56835868665762</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.57191820896011</v>
+        <v>13.81953598911151</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>23.49127539405783</v>
+        <v>23.50012438462577</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.60574040011433</v>
+        <v>12.48197298321039</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.7347274366446</v>
+        <v>11.20849954893775</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>20.44238327686148</v>
+        <v>20.46661896435092</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4005546797929661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9686267448967779</v>
+        <v>0.9686267448967777</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.512456527197077</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.225559918139885</v>
+        <v>0.2596916826469216</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01635732776890398</v>
+        <v>0.05258166820237965</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4124590256183524</v>
+        <v>0.4009741849179641</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1646179914807055</v>
+        <v>0.1616270663156008</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1068188953433136</v>
+        <v>0.1297034299244154</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6484490159834346</v>
+        <v>0.6220322614905163</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2630149890482242</v>
+        <v>0.2586145066898036</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1472876281677497</v>
+        <v>0.1840281259824428</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6695043326143351</v>
+        <v>0.6804201653285478</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.214195635686884</v>
+        <v>1.35234618178582</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9048047991784635</v>
+        <v>1.000559234958277</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.439640823705445</v>
+        <v>1.536067994669202</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7971396530817502</v>
+        <v>0.786831512717427</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7961563664310504</v>
+        <v>0.7877147468906562</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.394984764255159</v>
+        <v>1.433213842567233</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8185818007809226</v>
+        <v>0.794089545554056</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.669478647045303</v>
+        <v>0.7149488089236932</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.319184063710839</v>
+        <v>1.30671256290455</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.366246406368469</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.000387424096295</v>
+        <v>2.000387424096298</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.514149357424824</v>
@@ -878,7 +878,7 @@
         <v>-0.5025440234417187</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.6285806845702193</v>
+        <v>0.6285806845702235</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.158374738383749</v>
+        <v>-5.576187970772666</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.83670827172253</v>
+        <v>-11.63055373373069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.391703547397153</v>
+        <v>-10.27115875046483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-13.25101664119829</v>
+        <v>-13.13686981111814</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.951001866599423</v>
+        <v>-9.901480014174671</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.756115787258297</v>
+        <v>-8.178004714980307</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.20932237306973</v>
+        <v>-6.253947433038111</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.879106805766988</v>
+        <v>-7.935503618520539</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.671682884958106</v>
+        <v>-6.077889916314088</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.80941871968823</v>
+        <v>13.31932087701878</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.081306925926852</v>
+        <v>3.083527121943837</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.482742636153184</v>
+        <v>4.938741799868889</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.597265511296859</v>
+        <v>9.116091223828704</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.10143963786032</v>
+        <v>11.93222708298567</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.426206106926154</v>
+        <v>10.33093464783528</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.38702998615053</v>
+        <v>8.961092567456873</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.080740591225688</v>
+        <v>5.504014822599573</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.353791007401248</v>
+        <v>5.718636753158378</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1886415471114824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1594745912717582</v>
+        <v>0.1594745912717584</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1301211596099705</v>
@@ -983,7 +983,7 @@
         <v>-0.04318702825757615</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.05401821635602215</v>
+        <v>0.05401821635602251</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4599283143320104</v>
+        <v>-0.3974599855857579</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6825910806668216</v>
+        <v>-0.7023858282032021</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5306909575246722</v>
+        <v>-0.5355514039451015</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6816040676960405</v>
+        <v>-0.6516546159020056</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.480913246288024</v>
+        <v>-0.5010128358237469</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4218402476949882</v>
+        <v>-0.3934295877078322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4144034953722928</v>
+        <v>-0.4049003129967754</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.431314534680003</v>
+        <v>-0.4593366610441088</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3307292229690866</v>
+        <v>-0.34244611953681</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.029666556351047</v>
+        <v>2.090212235922231</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5502385653580694</v>
+        <v>0.5671982463009976</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9659732465267898</v>
+        <v>0.976390632609646</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.608581443428781</v>
+        <v>1.591018731832235</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.110572559000945</v>
+        <v>1.960193941099804</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.544131135825455</v>
+        <v>2.001534800122415</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.043427010205765</v>
+        <v>1.223849801496642</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7046856011744866</v>
+        <v>0.7171244156746901</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6820672486323466</v>
+        <v>0.762261623799691</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.512319798099802</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.520482622514374</v>
+        <v>-2.520482622514375</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.258706218520666</v>
@@ -1092,7 +1092,7 @@
         <v>1.473418386456278</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.8566511845063074</v>
+        <v>-0.8566511845063061</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.98240640274455</v>
+        <v>-11.14036669830087</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.341156414853046</v>
+        <v>-10.72904853669455</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.83899960010706</v>
+        <v>-12.29181886326243</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.81510807565708</v>
+        <v>-14.98355438284829</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-19.18642733549452</v>
+        <v>-19.10304286181907</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-21.64310248785392</v>
+        <v>-21.24190899624525</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-9.433586399473127</v>
+        <v>-9.340459786684239</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.106626049941024</v>
+        <v>-8.923825045726327</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-11.40032840245735</v>
+        <v>-11.29558649377114</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.55405984663107</v>
+        <v>16.18741629603052</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.7464136410419</v>
+        <v>15.36886386993043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.794435918080809</v>
+        <v>7.037169592774249</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.46224355802437</v>
+        <v>25.46214994678812</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>15.39202740409987</v>
+        <v>14.69387190673018</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.306543140159208</v>
+        <v>7.477434274646249</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.78859308666403</v>
+        <v>14.80012097427779</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.78041749781607</v>
+        <v>11.58021888024413</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.37375564883156</v>
+        <v>5.464398780811619</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.123257516537981</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2054250886079832</v>
+        <v>-0.2054250886079833</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2600714714734444</v>
@@ -1197,7 +1197,7 @@
         <v>0.1696520267751706</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.09863634866155395</v>
+        <v>-0.0986363486615538</v>
       </c>
     </row>
     <row r="20">
@@ -1210,21 +1210,23 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.8461210609533425</v>
+        <v>-0.8075644977748484</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
-      <c r="G20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7675699798163598</v>
+        <v>-0.7791216034594844</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7621774161289646</v>
+        <v>-0.7691935228360701</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7049368977112406</v>
+        <v>-0.6576720025590957</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.650883411922509</v>
+        <v>-0.6498973396137665</v>
       </c>
     </row>
     <row r="21">
@@ -1240,16 +1242,16 @@
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>1.803958830522127</v>
+        <v>2.256216620199853</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.26654996137909</v>
+        <v>3.982726961908813</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.774342252665922</v>
+        <v>3.719994881336058</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.796549209666266</v>
+        <v>1.619222659058981</v>
       </c>
     </row>
     <row r="22">
@@ -1270,7 +1272,7 @@
         <v>2.271566451474502</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.117610838797469</v>
+        <v>3.117610838797466</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>7.26905104062503</v>
@@ -1279,7 +1281,7 @@
         <v>5.018880762400435</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.815797348488397</v>
+        <v>9.815797348488402</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.528328958591132</v>
@@ -1299,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.269678676857578</v>
+        <v>3.253903102736424</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.77403370187679</v>
+        <v>-1.637964450647005</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5203437297523811</v>
+        <v>-0.5165227406531414</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.458314653622633</v>
+        <v>2.678044437517504</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9092150454274646</v>
+        <v>0.775199224280627</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.096309874167181</v>
+        <v>5.817570538385928</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.563248064805013</v>
+        <v>4.222266627562056</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7135591992272837</v>
+        <v>0.3826554845024083</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.89411402422322</v>
+        <v>3.999665964755458</v>
       </c>
     </row>
     <row r="24">
@@ -1334,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.68168207364756</v>
+        <v>12.50360381788814</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.14684180117169</v>
+        <v>6.184096392422175</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.818598005224535</v>
+        <v>6.851523792526039</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.69576450240019</v>
+        <v>11.57557544285458</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.948126361739426</v>
+        <v>9.69763155205197</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.46963052357081</v>
+        <v>13.39951196472706</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.93895476945963</v>
+        <v>11.12917732318309</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.745158140538514</v>
+        <v>6.65546763546169</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.416060852190302</v>
+        <v>9.578707580259319</v>
       </c>
     </row>
     <row r="25">
@@ -1375,7 +1377,7 @@
         <v>0.176539533243752</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2422916406252205</v>
+        <v>0.2422916406252203</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3909582137189368</v>
@@ -1384,7 +1386,7 @@
         <v>0.2699351877941543</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5279322673819232</v>
+        <v>0.5279322673819234</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4660534901345024</v>
@@ -1404,31 +1406,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2124832806533511</v>
+        <v>0.2034626025494561</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1138665088131626</v>
+        <v>-0.1200447022164153</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03952857185334144</v>
+        <v>-0.04010282445451506</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1068376189717423</v>
+        <v>0.1257853112793103</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03806289467958553</v>
+        <v>0.0370871950533923</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2840036370945289</v>
+        <v>0.2752764601708311</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2487811516077227</v>
+        <v>0.2375972813025723</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.04161309252082349</v>
+        <v>0.02361212631807867</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2078184320699686</v>
+        <v>0.2190784367881236</v>
       </c>
     </row>
     <row r="27">
@@ -1439,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.229889945317459</v>
+        <v>1.121544366587288</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5584328814241272</v>
+        <v>0.5527617842447942</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6413258850779048</v>
+        <v>0.6594265493375651</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6914843358422341</v>
+        <v>0.7139095416146284</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5761276667926845</v>
+        <v>0.5827132510870017</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8428879687956382</v>
+        <v>0.8463173464137471</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7534942334765647</v>
+        <v>0.7572408949372942</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4648626823400238</v>
+        <v>0.460633127918784</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6551484459419047</v>
+        <v>0.6716295164398726</v>
       </c>
     </row>
     <row r="28">
